--- a/MZ.xlsx
+++ b/MZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Desktop\Projects\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{64D722B1-E52E-4F07-8072-8ACF51B48935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D2F730-C2AA-42DC-9D90-F00FD01D9040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="19090" yWindow="-2280" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MZ" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>ms</t>
   </si>
   <si>
     <t>KB</t>
   </si>
+  <si>
+    <t>50x50</t>
+  </si>
+  <si>
+    <t>100x100</t>
+  </si>
+  <si>
+    <t>150x150</t>
+  </si>
+  <si>
+    <t>200x200</t>
+  </si>
+  <si>
+    <t>250x250</t>
+  </si>
+  <si>
+    <t>300x300</t>
+  </si>
+  <si>
+    <t>350x350</t>
+  </si>
+  <si>
+    <t>400x400</t>
+  </si>
+  <si>
+    <t>450x450</t>
+  </si>
+  <si>
+    <t>500x500</t>
+  </si>
+  <si>
+    <t>550x550</t>
+  </si>
+  <si>
+    <t>600x600</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,6 +620,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de ejecución de Hunt and Kill</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -651,53 +712,88 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5542377464503244E-3"/>
+                  <c:y val="-2.9172885784022006E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>MZ!$A$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50x50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>150x150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>250x250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>350x350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450</c:v>
+                  <c:v>450x450</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550</c:v>
+                  <c:v>550x550</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>600x600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -791,23 +887,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Tamaño de mapa (Alto</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>x</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES" baseline="0"/>
-                  <a:t> Ancho</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>)</a:t>
+                  <a:t>Dimensiones del mapa</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -909,7 +989,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -941,7 +1021,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1063,6 +1143,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Consumo de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> memoria de Hunt and Kill</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1101,9 +1211,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Consumo de memoria</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1118,19 +1225,26 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="41275" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="46000"/>
+                  </a:srgbClr>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9076115485564304E-2"/>
+                  <c:y val="-3.2824074074074075E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1162,53 +1276,55 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:cat>
-            <c:numRef>
-              <c:f>MZ!$A$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>MZ!$A$5:$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50x50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100x100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>150x150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>200x200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>250x250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>300x300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>350x350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400</c:v>
+                  <c:v>400x400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450</c:v>
+                  <c:v>450x450</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500</c:v>
+                  <c:v>500x500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>550x550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600x600</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MZ!$A$6:$K$6</c:f>
+              <c:f>MZ!$A$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>63.5</c:v>
                 </c:pt>
@@ -1241,6 +1357,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1418,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Tamaño de mapa (Alto x Ancho)</a:t>
+                  <a:t>Dimensiones del mapa</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1401,7 +1520,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1440,7 +1559,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3052,51 +3171,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>50</v>
-      </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-      <c r="C1">
-        <v>150</v>
-      </c>
-      <c r="D1">
-        <v>200</v>
-      </c>
-      <c r="E1">
-        <v>250</v>
-      </c>
-      <c r="F1">
-        <v>300</v>
-      </c>
-      <c r="G1">
-        <v>350</v>
-      </c>
-      <c r="H1">
-        <v>400</v>
-      </c>
-      <c r="I1">
-        <v>450</v>
-      </c>
-      <c r="J1">
-        <v>500</v>
-      </c>
-      <c r="K1">
-        <v>550</v>
-      </c>
-      <c r="L1">
-        <v>600</v>
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3141,41 +3260,41 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>150</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5">
-        <v>250</v>
-      </c>
-      <c r="F5">
-        <v>300</v>
-      </c>
-      <c r="G5">
-        <v>350</v>
-      </c>
-      <c r="H5">
-        <v>400</v>
-      </c>
-      <c r="I5">
-        <v>450</v>
-      </c>
-      <c r="J5">
-        <v>500</v>
-      </c>
-      <c r="K5">
-        <v>550</v>
-      </c>
-      <c r="L5">
-        <v>600</v>
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
